--- a/biology/Botanique/Maison_Henry-Stuart/Maison_Henry-Stuart.xlsx
+++ b/biology/Botanique/Maison_Henry-Stuart/Maison_Henry-Stuart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison Henry-Stuart est une résidence bourgeoise composée d'un cottage et d'un jardin à l'anglaise située sur la Grande Allée à Québec[1]. Elle est considérée comme un remarquable exemple de cottage Regency au Québec[2]. Elle a été classée immeuble patrimonial en 1988[3] et désignée lieu historique national du Canada en 1999[4]. Elle est aujourd'hui gérée par Action patrimoine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison Henry-Stuart est une résidence bourgeoise composée d'un cottage et d'un jardin à l'anglaise située sur la Grande Allée à Québec. Elle est considérée comme un remarquable exemple de cottage Regency au Québec. Elle a été classée immeuble patrimonial en 1988 et désignée lieu historique national du Canada en 1999. Elle est aujourd'hui gérée par Action patrimoine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Construction et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison est construite par Joseph Archer entre 1849 et 1850 pour Maria Curry, la femme du marchand William Henry[5]. Dès sa complétion, la propriétaire louera la résidence à Joseph-André Taschereau, juge et homme politique[5]. En 1856, le surintendant médical de l'installation de quarantaine de Grosse-Île George Mellis Douglas acquiert la maison puis elle sera louée à Henry Dining, un constructeur de bateaux, de 1864 à 1874[5]. À la mort de Douglas, la maison est vendue à John Hearn, un homme politique ayant siégé à l'Assemblée nationale du Québec et à la Chambre des communes du Canada[5]. Ce dernier la louera à diverses personnes dont Joseph-Israël Tarte[5]. En 1918, la maison est vendue à l'avocat Gustavus George Stuart, pour qu'elle soit habitée par ses nièces Mary-Lauretta et Adèle[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison est construite par Joseph Archer entre 1849 et 1850 pour Maria Curry, la femme du marchand William Henry. Dès sa complétion, la propriétaire louera la résidence à Joseph-André Taschereau, juge et homme politique. En 1856, le surintendant médical de l'installation de quarantaine de Grosse-Île George Mellis Douglas acquiert la maison puis elle sera louée à Henry Dining, un constructeur de bateaux, de 1864 à 1874. À la mort de Douglas, la maison est vendue à John Hearn, un homme politique ayant siégé à l'Assemblée nationale du Québec et à la Chambre des communes du Canada. Ce dernier la louera à diverses personnes dont Joseph-Israël Tarte. En 1918, la maison est vendue à l'avocat Gustavus George Stuart, pour qu'elle soit habitée par ses nièces Mary-Lauretta et Adèle.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
